--- a/GAMS/MakeMeASam.xlsx
+++ b/GAMS/MakeMeASam.xlsx
@@ -455,8 +455,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T13" workbookViewId="0">
-      <selection activeCell="AQ40" sqref="AQ40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GAMS/MakeMeASam.xlsx
+++ b/GAMS/MakeMeASam.xlsx
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT44"/>
+  <dimension ref="A1:AW43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
@@ -467,7 +467,7 @@
     <col min="43" max="43" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +588,14 @@
       <c r="AQ1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -710,8 +716,14 @@
       <c r="AQ2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
@@ -832,8 +844,14 @@
       <c r="AQ3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,20 +864,8 @@
       <c r="AB4">
         <v>20994.603755950928</v>
       </c>
-      <c r="AR4">
-        <f>SUM($D4:$AQ4)</f>
-        <v>20994.603755950928</v>
-      </c>
-      <c r="AS4">
-        <f>SUM(D$4:D$43)</f>
-        <v>20994.603755950928</v>
-      </c>
-      <c r="AT4">
-        <f>AS4-AR4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,20 +878,8 @@
       <c r="AC5">
         <v>426.89999389648438</v>
       </c>
-      <c r="AR5">
-        <f t="shared" ref="AR5:AR42" si="0">SUM($D5:$AQ5)</f>
-        <v>426.89999389648438</v>
-      </c>
-      <c r="AS5">
-        <f>SUM(E$4:E$43)</f>
-        <v>426.89999389648438</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" ref="AT5:AT42" si="1">AS5-AR5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,20 +892,8 @@
       <c r="AD6">
         <v>11361.66015625</v>
       </c>
-      <c r="AR6">
-        <f t="shared" si="0"/>
-        <v>11361.66015625</v>
-      </c>
-      <c r="AS6">
-        <f>SUM(F$4:F$43)</f>
-        <v>11361.66015625</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,20 +906,8 @@
       <c r="AE7">
         <v>448</v>
       </c>
-      <c r="AR7">
-        <f t="shared" si="0"/>
-        <v>448</v>
-      </c>
-      <c r="AS7">
-        <f>SUM(G$4:G$43)</f>
-        <v>448</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,20 +920,8 @@
       <c r="AB8">
         <v>61609.917491912842</v>
       </c>
-      <c r="AR8">
-        <f t="shared" si="0"/>
-        <v>61609.917491912842</v>
-      </c>
-      <c r="AS8">
-        <f>SUM(H$4:H$43)</f>
-        <v>61609.917491912835</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,20 +934,8 @@
       <c r="AC9">
         <v>6</v>
       </c>
-      <c r="AR9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AS9">
-        <f>SUM(I$4:I$43)</f>
-        <v>6</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,20 +948,8 @@
       <c r="AD10">
         <v>911.635986328125</v>
       </c>
-      <c r="AR10">
-        <f t="shared" si="0"/>
-        <v>911.635986328125</v>
-      </c>
-      <c r="AS10">
-        <f>SUM(J$4:J$43)</f>
-        <v>911.635986328125</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,20 +962,8 @@
       <c r="AE11">
         <v>426</v>
       </c>
-      <c r="AR11">
-        <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
-      <c r="AS11">
-        <f>SUM(K$4:K$43)</f>
-        <v>426</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,20 +976,8 @@
       <c r="Z12">
         <v>397.23975270986557</v>
       </c>
-      <c r="AR12">
-        <f t="shared" si="0"/>
-        <v>397.23975270986557</v>
-      </c>
-      <c r="AS12">
-        <f>SUM(L$4:L$43)</f>
-        <v>397.23975270986557</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,20 +990,8 @@
       <c r="AC13">
         <v>267</v>
       </c>
-      <c r="AR13">
-        <f t="shared" si="0"/>
-        <v>267</v>
-      </c>
-      <c r="AS13">
-        <f>SUM(M$4:M$43)</f>
-        <v>267</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,20 +1004,8 @@
       <c r="AD14">
         <v>1602.260009765625</v>
       </c>
-      <c r="AR14">
-        <f t="shared" si="0"/>
-        <v>1602.260009765625</v>
-      </c>
-      <c r="AS14">
-        <f>SUM(N$4:N$43)</f>
-        <v>1602.260009765625</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,20 +1018,8 @@
       <c r="AE15">
         <v>152.46000671386719</v>
       </c>
-      <c r="AR15">
-        <f t="shared" si="0"/>
-        <v>152.46000671386719</v>
-      </c>
-      <c r="AS15">
-        <f>SUM(O$4:O$43)</f>
-        <v>152.46000671386719</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,20 +1032,8 @@
       <c r="AC16">
         <v>1032.199951171875</v>
       </c>
-      <c r="AR16">
-        <f t="shared" si="0"/>
-        <v>1032.199951171875</v>
-      </c>
-      <c r="AS16">
-        <f>SUM(P$4:P$43)</f>
-        <v>1032.199951171875</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,20 +1046,8 @@
       <c r="AD17">
         <v>4521.72998046875</v>
       </c>
-      <c r="AR17">
-        <f t="shared" si="0"/>
-        <v>4521.72998046875</v>
-      </c>
-      <c r="AS17">
-        <f>SUM(Q$4:Q$43)</f>
-        <v>4521.72998046875</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,20 +1060,8 @@
       <c r="AE18">
         <v>588.8499755859375</v>
       </c>
-      <c r="AR18">
-        <f t="shared" si="0"/>
-        <v>588.8499755859375</v>
-      </c>
-      <c r="AS18">
-        <f>SUM(R$4:R$43)</f>
-        <v>588.8499755859375</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,20 +1074,8 @@
       <c r="Z19">
         <v>997.74024230241776</v>
       </c>
-      <c r="AR19">
-        <f t="shared" si="0"/>
-        <v>997.74024230241776</v>
-      </c>
-      <c r="AS19">
-        <f>SUM(S$4:S$43)</f>
-        <v>997.74024230241776</v>
-      </c>
-      <c r="AT19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,20 +1088,8 @@
       <c r="AC20">
         <v>276.76654052734375</v>
       </c>
-      <c r="AR20">
-        <f t="shared" si="0"/>
-        <v>276.76654052734375</v>
-      </c>
-      <c r="AS20">
-        <f>SUM(T$4:T$43)</f>
-        <v>276.76654052734375</v>
-      </c>
-      <c r="AT20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,20 +1102,8 @@
       <c r="AD21">
         <v>7168.7666015625</v>
       </c>
-      <c r="AR21">
-        <f t="shared" si="0"/>
-        <v>7168.7666015625</v>
-      </c>
-      <c r="AS21">
-        <f>SUM(U$4:U$43)</f>
-        <v>7168.7666015625</v>
-      </c>
-      <c r="AT21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,20 +1116,8 @@
       <c r="AE22">
         <v>853.26654052734375</v>
       </c>
-      <c r="AR22">
-        <f t="shared" si="0"/>
-        <v>853.26654052734375</v>
-      </c>
-      <c r="AS22">
-        <f>SUM(V$4:V$43)</f>
-        <v>853.26654052734375</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,20 +1130,8 @@
       <c r="AC23">
         <v>285.79000854492188</v>
       </c>
-      <c r="AR23">
-        <f t="shared" si="0"/>
-        <v>285.79000854492188</v>
-      </c>
-      <c r="AS23">
-        <f>SUM(W$4:W$43)</f>
-        <v>285.79000854492188</v>
-      </c>
-      <c r="AT23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,20 +1144,8 @@
       <c r="AD24">
         <v>1858.489990234375</v>
       </c>
-      <c r="AR24">
-        <f t="shared" si="0"/>
-        <v>1858.489990234375</v>
-      </c>
-      <c r="AS24">
-        <f>SUM(X$4:X$43)</f>
-        <v>1858.489990234375</v>
-      </c>
-      <c r="AT24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,20 +1158,8 @@
       <c r="AE25">
         <v>278.489990234375</v>
       </c>
-      <c r="AR25">
-        <f t="shared" si="0"/>
-        <v>278.489990234375</v>
-      </c>
-      <c r="AS25">
-        <f>SUM(Y$4:Y$43)</f>
-        <v>278.489990234375</v>
-      </c>
-      <c r="AT25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1433,20 +1187,8 @@
       <c r="AP26">
         <v>1245.9361386955718</v>
       </c>
-      <c r="AR26">
-        <f t="shared" si="0"/>
-        <v>7802.4562659431249</v>
-      </c>
-      <c r="AS26">
-        <f>SUM(Z$4:Z$43)</f>
-        <v>7802.4562659431249</v>
-      </c>
-      <c r="AT26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1474,20 +1216,8 @@
       <c r="AP27">
         <v>489.43178911507141</v>
       </c>
-      <c r="AR27">
-        <f t="shared" si="0"/>
-        <v>4150.2884720414877</v>
-      </c>
-      <c r="AS27">
-        <f>SUM(AA$4:AA$43)</f>
-        <v>4150.2884720414877</v>
-      </c>
-      <c r="AT27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,20 +1248,8 @@
       <c r="AQ28" s="3">
         <v>80303.073552351911</v>
       </c>
-      <c r="AR28">
-        <f t="shared" si="0"/>
-        <v>82604.52124786377</v>
-      </c>
-      <c r="AS28">
-        <f>SUM(AB$4:AB$43)</f>
-        <v>82604.52124786377</v>
-      </c>
-      <c r="AT28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1541,24 +1259,6 @@
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F29">
-        <v>1771.9957674989148</v>
-      </c>
-      <c r="J29">
-        <v>142.18125582505681</v>
-      </c>
-      <c r="N29">
-        <v>249.89287803821759</v>
-      </c>
-      <c r="Q29">
-        <v>705.22144448722509</v>
-      </c>
-      <c r="U29">
-        <v>1118.060556420397</v>
-      </c>
-      <c r="X29">
-        <v>289.85521053653565</v>
-      </c>
       <c r="AK29">
         <v>207.41290932893753</v>
       </c>
@@ -1577,20 +1277,11 @@
       <c r="AP29">
         <v>13.224999964237215</v>
       </c>
-      <c r="AR29">
-        <f t="shared" si="0"/>
-        <v>4894.9427152919161</v>
-      </c>
-      <c r="AS29">
-        <f>SUM(AC$4:AC$43)</f>
-        <v>4894.9427152919161</v>
-      </c>
-      <c r="AT29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AQ29" s="3">
+        <v>935.76332945068134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1600,24 +1291,60 @@
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E30">
+        <v>66.580497209622564</v>
+      </c>
       <c r="F30">
         <v>5296.2120055640607</v>
       </c>
+      <c r="G30">
+        <v>112.37468786168873</v>
+      </c>
+      <c r="I30">
+        <v>0.93577650262183609</v>
+      </c>
       <c r="J30">
         <v>424.95703876860534</v>
       </c>
+      <c r="K30">
+        <v>106.85628801133795</v>
+      </c>
+      <c r="M30">
+        <v>41.642054366671708</v>
+      </c>
       <c r="N30">
         <v>746.88985439225894</v>
       </c>
+      <c r="O30">
+        <v>38.24251264701293</v>
+      </c>
+      <c r="P30">
+        <v>160.98474338567453</v>
+      </c>
       <c r="Q30">
         <v>2107.7941321193125</v>
       </c>
+      <c r="R30">
+        <v>147.70498259784097</v>
+      </c>
+      <c r="T30">
+        <v>43.165270889570401</v>
+      </c>
       <c r="U30">
         <v>3341.7042243950882</v>
       </c>
+      <c r="V30">
+        <v>214.03027043433758</v>
+      </c>
+      <c r="W30">
+        <v>44.572595780071943</v>
+      </c>
       <c r="X30">
         <v>866.33087622193693</v>
       </c>
+      <c r="Y30">
+        <v>69.855414565162135</v>
+      </c>
       <c r="AK30">
         <v>2790.021649543196</v>
       </c>
@@ -1636,20 +1363,8 @@
       <c r="AP30">
         <v>1673.4969271477314</v>
       </c>
-      <c r="AR30">
-        <f t="shared" si="0"/>
-        <v>28327.06082130751</v>
-      </c>
-      <c r="AS30">
-        <f>SUM(AD$4:AD$43)</f>
-        <v>28327.060821307514</v>
-      </c>
-      <c r="AT30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1659,24 +1374,6 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F31">
-        <v>2849.9174411812041</v>
-      </c>
-      <c r="J31">
-        <v>228.67144956943255</v>
-      </c>
-      <c r="N31">
-        <v>401.90506355062155</v>
-      </c>
-      <c r="Q31">
-        <v>1134.2142748884278</v>
-      </c>
-      <c r="U31">
-        <v>1798.1872973301006</v>
-      </c>
-      <c r="X31">
-        <v>466.1768583630822</v>
-      </c>
       <c r="AK31">
         <v>1412.1290041585453</v>
       </c>
@@ -1695,20 +1392,8 @@
       <c r="AP31">
         <v>544.79375322884891</v>
       </c>
-      <c r="AR31">
-        <f t="shared" si="0"/>
-        <v>11927.168378463979</v>
-      </c>
-      <c r="AS31">
-        <f>SUM(AE$4:AE$43)</f>
-        <v>11927.168378463981</v>
-      </c>
-      <c r="AT31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1718,6 +1403,60 @@
       <c r="C32" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E32">
+        <v>71.30513385947404</v>
+      </c>
+      <c r="F32">
+        <v>6574.4079099172423</v>
+      </c>
+      <c r="G32">
+        <v>69.245983661270103</v>
+      </c>
+      <c r="I32">
+        <v>1.0021803918333754</v>
+      </c>
+      <c r="J32">
+        <v>527.51682034635155</v>
+      </c>
+      <c r="K32">
+        <v>65.845511249332731</v>
+      </c>
+      <c r="M32">
+        <v>44.597027436585201</v>
+      </c>
+      <c r="N32">
+        <v>927.14539399002751</v>
+      </c>
+      <c r="O32">
+        <v>23.565274852467805</v>
+      </c>
+      <c r="P32">
+        <v>172.40842525263676</v>
+      </c>
+      <c r="Q32">
+        <v>2616.4923911890301</v>
+      </c>
+      <c r="R32">
+        <v>91.01673167045341</v>
+      </c>
+      <c r="T32">
+        <v>46.228333338676855</v>
+      </c>
+      <c r="U32">
+        <v>4148.1962320213233</v>
+      </c>
+      <c r="V32">
+        <v>131.88678777693059</v>
+      </c>
+      <c r="W32">
+        <v>47.735523790935581</v>
+      </c>
+      <c r="X32">
+        <v>1075.412494676455</v>
+      </c>
+      <c r="Y32">
+        <v>43.045342217849999</v>
+      </c>
       <c r="AK32">
         <v>3792.4625939256516</v>
       </c>
@@ -1736,20 +1475,8 @@
       <c r="AP32">
         <v>611.66246668633551</v>
       </c>
-      <c r="AR32">
-        <f t="shared" si="0"/>
-        <v>13339.606041531195</v>
-      </c>
-      <c r="AS32">
-        <f>SUM(AF$4:AF$43)</f>
-        <v>13339.606041531195</v>
-      </c>
-      <c r="AT32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1771,20 +1498,8 @@
       <c r="S33">
         <v>158.60476837297716</v>
       </c>
-      <c r="AR33">
-        <f t="shared" si="0"/>
-        <v>26985.214844131635</v>
-      </c>
-      <c r="AS33">
-        <f>SUM(AG$4:AG$43)</f>
-        <v>26985.214844131635</v>
-      </c>
-      <c r="AT33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1798,85 +1513,73 @@
         <v>1970.0026266263692</v>
       </c>
       <c r="E34">
-        <v>179.28287315307199</v>
+        <v>121.3757931389495</v>
       </c>
       <c r="F34">
-        <v>598.44653267131173</v>
+        <v>-210.99953615114583</v>
       </c>
       <c r="G34">
-        <v>184.30289675359319</v>
+        <v>109.58589703927589</v>
       </c>
       <c r="H34">
         <v>8270.7683906643706</v>
       </c>
       <c r="I34">
-        <v>2.5197874310095898</v>
+        <v>1.705914193595153</v>
       </c>
       <c r="J34">
-        <v>48.018105415373135</v>
+        <v>-16.930164043686247</v>
       </c>
       <c r="K34">
-        <v>175.25230807372924</v>
+        <v>104.20444673824004</v>
       </c>
       <c r="L34">
         <v>36.801567265183557</v>
       </c>
       <c r="M34">
-        <v>112.13054067992675</v>
+        <v>75.91318161498431</v>
       </c>
       <c r="N34">
-        <v>84.394968173262157</v>
+        <v>-29.755873191480994</v>
       </c>
       <c r="O34">
-        <v>62.720582313477657</v>
+        <v>37.293452228466883</v>
       </c>
       <c r="P34">
-        <v>433.4874105419338</v>
+        <v>293.47409122205426</v>
       </c>
       <c r="Q34">
-        <v>238.17061866604712</v>
+        <v>-83.973901292479866</v>
       </c>
       <c r="R34">
-        <v>242.24722378073864</v>
+        <v>144.03940356281402</v>
       </c>
       <c r="S34">
         <v>161.87206706200377</v>
       </c>
       <c r="T34">
-        <v>116.23214169080117</v>
+        <v>78.689994966303985</v>
       </c>
       <c r="U34">
-        <v>377.59653582623673</v>
+        <v>-133.13251821508084</v>
       </c>
       <c r="V34">
-        <v>351.02565875470242</v>
+        <v>208.71870369930497</v>
       </c>
       <c r="W34">
-        <v>120.02167857326957</v>
+        <v>81.255538660743724</v>
       </c>
       <c r="X34">
-        <v>97.891230274853896</v>
+        <v>-34.514368541932299</v>
       </c>
       <c r="Y34">
-        <v>114.56810695775712</v>
+        <v>68.121820081011549</v>
       </c>
       <c r="AQ34" s="3">
-        <v>13977.753851349022</v>
-      </c>
-      <c r="AR34">
-        <f t="shared" si="0"/>
-        <v>27955.507702698043</v>
-      </c>
-      <c r="AS34">
-        <f>SUM(AH$4:AH$43)</f>
-        <v>27955.507702698043</v>
-      </c>
-      <c r="AT34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+        <v>11254.516527327865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1890,82 +1593,70 @@
         <v>362.94089424612969</v>
       </c>
       <c r="E35">
-        <v>247.61712074341239</v>
+        <v>167.63856968843831</v>
       </c>
       <c r="F35">
-        <v>845.08840933450938</v>
+        <v>-297.96022308015807</v>
       </c>
       <c r="G35">
-        <v>263.69710324640681</v>
+        <v>156.79343143776526</v>
       </c>
       <c r="H35">
         <v>4752.6481028090693</v>
       </c>
       <c r="I35">
-        <v>3.4802125689904102</v>
+        <v>2.3561289119496354</v>
       </c>
       <c r="J35">
-        <v>67.808136749657166</v>
+        <v>-23.907708743145648</v>
       </c>
       <c r="K35">
-        <v>250.74769192627076</v>
+        <v>149.09375400108931</v>
       </c>
       <c r="L35">
         <v>99.855379410882833</v>
       </c>
       <c r="M35">
-        <v>154.86945932007325</v>
+        <v>104.84773658175878</v>
       </c>
       <c r="N35">
-        <v>119.17724561126471</v>
+        <v>-42.01936542518046</v>
       </c>
       <c r="O35">
-        <v>89.739424400389538</v>
+        <v>53.358766985919566</v>
       </c>
       <c r="P35">
-        <v>598.71254062994115</v>
+        <v>405.33269131150945</v>
       </c>
       <c r="Q35">
-        <v>336.32951030773762</v>
+        <v>-118.58264154711317</v>
       </c>
       <c r="R35">
-        <v>346.60275180519886</v>
+        <v>206.08885775482912</v>
       </c>
       <c r="S35">
         <v>306.43795562512798</v>
       </c>
       <c r="T35">
-        <v>160.53439883654258</v>
+        <v>108.68294133279251</v>
       </c>
       <c r="U35">
-        <v>533.21798759067758</v>
+        <v>-188.00133663883071</v>
       </c>
       <c r="V35">
-        <v>502.24088177264133</v>
+        <v>298.63077861677061</v>
       </c>
       <c r="W35">
-        <v>165.76832997165232</v>
+        <v>112.22635031317063</v>
       </c>
       <c r="X35">
-        <v>138.23581483796639</v>
+        <v>-48.739012122084667</v>
       </c>
       <c r="Y35">
-        <v>163.92188327661788</v>
-      </c>
-      <c r="AR35">
-        <f t="shared" si="0"/>
-        <v>10509.671235021158</v>
-      </c>
-      <c r="AS35">
-        <f>SUM(AI$4:AI$43)</f>
-        <v>10509.67123502116</v>
-      </c>
-      <c r="AT35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+        <v>97.467413370351323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -1987,20 +1678,8 @@
       <c r="S36">
         <v>370.82545124230882</v>
       </c>
-      <c r="AR36">
-        <f t="shared" si="0"/>
-        <v>41052.959415035271</v>
-      </c>
-      <c r="AS36">
-        <f>SUM(AJ$4:AJ$43)</f>
-        <v>41052.959415035271</v>
-      </c>
-      <c r="AT36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -2014,28 +1693,16 @@
         <v>10054.140996092767</v>
       </c>
       <c r="AH37">
-        <v>4220.8209396949733</v>
+        <v>3398.4930289857666</v>
       </c>
       <c r="AI37">
-        <v>1719.3435275704583</v>
+        <v>389.41267229217522</v>
       </c>
       <c r="AQ37" s="3">
-        <v>-5137.8678489475478</v>
-      </c>
-      <c r="AR37">
-        <f t="shared" si="0"/>
-        <v>10856.43761441065</v>
-      </c>
-      <c r="AS37">
-        <f>SUM(AK$4:AK$43)</f>
-        <v>10856.43761441065</v>
-      </c>
-      <c r="AT37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+        <v>-2985.6090829600616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -2049,28 +1716,16 @@
         <v>16661.914502887495</v>
       </c>
       <c r="AH38">
-        <v>1070.0672804860496</v>
+        <v>861.58978199639159</v>
       </c>
       <c r="AI38">
-        <v>5074.6841440539874</v>
+        <v>4880.1902769789622</v>
       </c>
       <c r="AQ38" s="3">
-        <v>-13861.831058156298</v>
-      </c>
-      <c r="AR38">
-        <f t="shared" si="0"/>
-        <v>8944.8348692712316</v>
-      </c>
-      <c r="AS38">
-        <f>SUM(AL$4:AL$43)</f>
-        <v>8944.8348692712316</v>
-      </c>
-      <c r="AT38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+        <v>-13458.859692591614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -2084,28 +1739,16 @@
         <v>110.55457677839405</v>
       </c>
       <c r="AH39">
-        <v>2377.9272899689995</v>
+        <v>1914.6439599919813</v>
       </c>
       <c r="AI39">
-        <v>463.64150874261031</v>
+        <v>216.04251755338072</v>
       </c>
       <c r="AQ39" s="3">
-        <v>1687.8357581359578</v>
-      </c>
-      <c r="AR39">
-        <f t="shared" si="0"/>
-        <v>4639.9591336259618</v>
-      </c>
-      <c r="AS39">
-        <f>SUM(AM$4:AM$43)</f>
-        <v>4639.9591336259618</v>
-      </c>
-      <c r="AT39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+        <v>2398.7180793022058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -2116,28 +1759,16 @@
         <v>9</v>
       </c>
       <c r="AH40">
-        <v>6308.9383411990011</v>
+        <v>5079.7897563537254</v>
       </c>
       <c r="AI40">
-        <v>1281.6448027428778</v>
+        <v>492.83890751922542</v>
       </c>
       <c r="AQ40" s="3">
-        <v>2874.8485457343677</v>
-      </c>
-      <c r="AR40">
-        <f t="shared" si="0"/>
-        <v>10465.431689676247</v>
-      </c>
-      <c r="AS40">
-        <f>SUM(AN$4:AN$43)</f>
-        <v>10465.431689676247</v>
-      </c>
-      <c r="AT40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+        <v>4892.8030258032959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -2151,28 +1782,16 @@
         <v>158.60476837297716</v>
       </c>
       <c r="AH41">
-        <v>7853.1294763664919</v>
+        <v>6323.1314861423352</v>
       </c>
       <c r="AI41">
-        <v>1502.4312238249895</v>
+        <v>525.75033893586033</v>
       </c>
       <c r="AQ41" s="3">
-        <v>-500.77052620655559</v>
-      </c>
-      <c r="AR41">
-        <f t="shared" si="0"/>
-        <v>9013.3949423579033</v>
-      </c>
-      <c r="AS41">
-        <f>SUM(AO$4:AO$43)</f>
-        <v>9013.3949423579052</v>
-      </c>
-      <c r="AT41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+        <v>2005.9083489067307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -2183,28 +1802,16 @@
         <v>11</v>
       </c>
       <c r="AH42">
-        <v>6124.6243749825317</v>
+        <v>4931.3850411855301</v>
       </c>
       <c r="AI42">
-        <v>467.92602808623656</v>
+        <v>160.95475156143729</v>
       </c>
       <c r="AQ42" s="3">
-        <v>-1709.8058914701633</v>
-      </c>
-      <c r="AR42">
-        <f t="shared" si="0"/>
-        <v>4882.7445115986047</v>
-      </c>
-      <c r="AS42">
-        <f>SUM(AP$4:AP$43)</f>
-        <v>4882.7445115986056</v>
-      </c>
-      <c r="AT42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-209.59528114836303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
@@ -2220,178 +1827,17 @@
       <c r="AA43" s="3">
         <v>4150.2884720414877</v>
       </c>
-      <c r="AC43" s="3">
-        <v>2600.2862211512911</v>
-      </c>
       <c r="AD43" s="3">
-        <v>902.51809669813906</v>
+        <v>16771.689338838572</v>
       </c>
       <c r="AE43" s="3">
-        <v>9180.1018654024574</v>
+        <v>3414.6992680652734</v>
       </c>
       <c r="AF43" s="3">
         <v>13339.606041531195</v>
       </c>
       <c r="AJ43" s="3">
         <v>41052.959415035271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <f>SUM(D$4:D$43)</f>
-        <v>20994.603755950928</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ref="E44:AP44" si="2">SUM(E$4:E$43)</f>
-        <v>426.89999389648438</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>11361.66015625</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>448</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="2"/>
-        <v>61609.917491912835</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="2"/>
-        <v>911.635986328125</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
-        <v>426</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="2"/>
-        <v>397.23975270986557</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="2"/>
-        <v>267</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="2"/>
-        <v>1602.260009765625</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="2"/>
-        <v>152.46000671386719</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="2"/>
-        <v>1032.199951171875</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="2"/>
-        <v>4521.72998046875</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="2"/>
-        <v>588.8499755859375</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="2"/>
-        <v>997.74024230241776</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="2"/>
-        <v>276.76654052734375</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="2"/>
-        <v>7168.7666015625</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="2"/>
-        <v>853.26654052734375</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="2"/>
-        <v>285.79000854492188</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="2"/>
-        <v>1858.489990234375</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="2"/>
-        <v>278.489990234375</v>
-      </c>
-      <c r="Z44">
-        <f t="shared" si="2"/>
-        <v>7802.4562659431249</v>
-      </c>
-      <c r="AA44">
-        <f t="shared" si="2"/>
-        <v>4150.2884720414877</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="2"/>
-        <v>82604.52124786377</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="2"/>
-        <v>4894.9427152919161</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="2"/>
-        <v>28327.060821307514</v>
-      </c>
-      <c r="AE44">
-        <f t="shared" si="2"/>
-        <v>11927.168378463981</v>
-      </c>
-      <c r="AF44">
-        <f t="shared" si="2"/>
-        <v>13339.606041531195</v>
-      </c>
-      <c r="AG44">
-        <f t="shared" si="2"/>
-        <v>26985.214844131635</v>
-      </c>
-      <c r="AH44">
-        <f t="shared" si="2"/>
-        <v>27955.507702698043</v>
-      </c>
-      <c r="AI44">
-        <f t="shared" si="2"/>
-        <v>10509.67123502116</v>
-      </c>
-      <c r="AJ44">
-        <f t="shared" si="2"/>
-        <v>41052.959415035271</v>
-      </c>
-      <c r="AK44">
-        <f t="shared" si="2"/>
-        <v>10856.43761441065</v>
-      </c>
-      <c r="AL44">
-        <f t="shared" si="2"/>
-        <v>8944.8348692712316</v>
-      </c>
-      <c r="AM44">
-        <f t="shared" si="2"/>
-        <v>4639.9591336259618</v>
-      </c>
-      <c r="AN44">
-        <f t="shared" si="2"/>
-        <v>10465.431689676247</v>
-      </c>
-      <c r="AO44">
-        <f t="shared" si="2"/>
-        <v>9013.3949423579052</v>
-      </c>
-      <c r="AP44">
-        <f t="shared" si="2"/>
-        <v>4882.7445115986056</v>
       </c>
     </row>
   </sheetData>

--- a/GAMS/MakeMeASam.xlsx
+++ b/GAMS/MakeMeASam.xlsx
@@ -1278,7 +1278,7 @@
         <v>13.224999964237215</v>
       </c>
       <c r="AQ29" s="3">
-        <v>935.76332945068134</v>
+        <v>1676.920891655056</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -1292,58 +1292,58 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>66.580497209622564</v>
+        <v>49.581221326314676</v>
       </c>
       <c r="F30">
-        <v>5296.2120055640607</v>
+        <v>3437.2150730335607</v>
       </c>
       <c r="G30">
-        <v>112.37468786168873</v>
+        <v>99.154136348548874</v>
       </c>
       <c r="I30">
-        <v>0.93577650262183609</v>
+        <v>0.69685484237796314</v>
       </c>
       <c r="J30">
-        <v>424.95703876860534</v>
+        <v>275.79499036530586</v>
       </c>
       <c r="K30">
-        <v>106.85628801133795</v>
+        <v>94.28496001000407</v>
       </c>
       <c r="M30">
-        <v>41.642054366671708</v>
+        <v>31.01004048581936</v>
       </c>
       <c r="N30">
-        <v>746.88985439225894</v>
+        <v>484.7277757604603</v>
       </c>
       <c r="O30">
-        <v>38.24251264701293</v>
+        <v>33.743393512070234</v>
       </c>
       <c r="P30">
-        <v>160.98474338567453</v>
+        <v>119.88225571273637</v>
       </c>
       <c r="Q30">
-        <v>2107.7941321193125</v>
+        <v>1367.9478378435092</v>
       </c>
       <c r="R30">
-        <v>147.70498259784097</v>
+        <v>130.32792582162438</v>
       </c>
       <c r="T30">
-        <v>43.165270889570401</v>
+        <v>32.144350662446044</v>
       </c>
       <c r="U30">
-        <v>3341.7042243950882</v>
+        <v>2168.7493094392121</v>
       </c>
       <c r="V30">
-        <v>214.03027043433758</v>
+        <v>188.85023861853313</v>
       </c>
       <c r="W30">
-        <v>44.572595780071943</v>
+        <v>33.192358559628047</v>
       </c>
       <c r="X30">
-        <v>866.33087622193693</v>
+        <v>562.24440087671178</v>
       </c>
       <c r="Y30">
-        <v>69.855414565162135</v>
+        <v>61.637130498672462</v>
       </c>
       <c r="AK30">
         <v>2790.021649543196</v>
@@ -1362,6 +1362,9 @@
       </c>
       <c r="AP30">
         <v>1673.4969271477314</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>2710.1857810455876</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -1404,58 +1407,58 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>71.30513385947404</v>
+        <v>53.099567767693429</v>
       </c>
       <c r="F32">
-        <v>6574.4079099172423</v>
+        <v>4266.7578149247265</v>
       </c>
       <c r="G32">
-        <v>69.245983661270103</v>
+        <v>61.099397348179501</v>
       </c>
       <c r="I32">
-        <v>1.0021803918333754</v>
+        <v>0.7463045471099603</v>
       </c>
       <c r="J32">
-        <v>527.51682034635155</v>
+        <v>342.35577508383886</v>
       </c>
       <c r="K32">
-        <v>65.845511249332731</v>
+        <v>58.098980514117116</v>
       </c>
       <c r="M32">
-        <v>44.597027436585201</v>
+        <v>33.210552346393236</v>
       </c>
       <c r="N32">
-        <v>927.14539399002751</v>
+        <v>601.71271840481381</v>
       </c>
       <c r="O32">
-        <v>23.565274852467805</v>
+        <v>20.792889575706887</v>
       </c>
       <c r="P32">
-        <v>172.40842525263676</v>
+        <v>128.38925284770821</v>
       </c>
       <c r="Q32">
-        <v>2616.4923911890301</v>
+        <v>1698.0904608849266</v>
       </c>
       <c r="R32">
-        <v>91.01673167045341</v>
+        <v>80.30888088569418</v>
       </c>
       <c r="T32">
-        <v>46.228333338676855</v>
+        <v>34.42535461390829</v>
       </c>
       <c r="U32">
-        <v>4148.1962320213233</v>
+        <v>2692.158584215545</v>
       </c>
       <c r="V32">
-        <v>131.88678777693059</v>
+        <v>116.3706950972917</v>
       </c>
       <c r="W32">
-        <v>47.735523790935581</v>
+        <v>35.547730482611598</v>
       </c>
       <c r="X32">
-        <v>1075.412494676455</v>
+        <v>697.93732436450227</v>
       </c>
       <c r="Y32">
-        <v>43.045342217849999</v>
+        <v>37.98118430986765</v>
       </c>
       <c r="AK32">
         <v>3792.4625939256516</v>
@@ -1513,70 +1516,70 @@
         <v>1970.0026266263692</v>
       </c>
       <c r="E34">
-        <v>121.3757931389495</v>
+        <v>136.16057952553396</v>
       </c>
       <c r="F34">
-        <v>-210.99953615114583</v>
+        <v>1516.3680487454039</v>
       </c>
       <c r="G34">
-        <v>109.58589703927589</v>
+        <v>118.37613229978382</v>
       </c>
       <c r="H34">
         <v>8270.7683906643706</v>
       </c>
       <c r="I34">
-        <v>1.705914193595153</v>
+        <v>1.9137116159137328</v>
       </c>
       <c r="J34">
-        <v>-16.930164043686247</v>
+        <v>121.67021920595221</v>
       </c>
       <c r="K34">
-        <v>104.20444673824004</v>
+        <v>112.5630186600623</v>
       </c>
       <c r="L34">
         <v>36.801567265183557</v>
       </c>
       <c r="M34">
-        <v>75.91318161498431</v>
+        <v>85.160166908161102</v>
       </c>
       <c r="N34">
-        <v>-29.755873191480994</v>
+        <v>213.84338654545755</v>
       </c>
       <c r="O34">
-        <v>37.293452228466883</v>
+        <v>40.284879297291674</v>
       </c>
       <c r="P34">
-        <v>293.47409122205426</v>
+        <v>329.22217275053418</v>
       </c>
       <c r="Q34">
-        <v>-83.973901292479866</v>
+        <v>603.48635438327244</v>
       </c>
       <c r="R34">
-        <v>144.03940356281402</v>
+        <v>155.59326476492279</v>
       </c>
       <c r="S34">
         <v>161.87206706200377</v>
       </c>
       <c r="T34">
-        <v>78.689994966303985</v>
+        <v>88.27522391723943</v>
       </c>
       <c r="U34">
-        <v>-133.13251821508084</v>
+        <v>956.76938704620022</v>
       </c>
       <c r="V34">
-        <v>208.71870369930497</v>
+        <v>225.4606984117047</v>
       </c>
       <c r="W34">
-        <v>81.255538660743724</v>
+        <v>91.153276510750317</v>
       </c>
       <c r="X34">
-        <v>-34.514368541932299</v>
+        <v>248.04076176792788</v>
       </c>
       <c r="Y34">
-        <v>68.121820081011549</v>
+        <v>73.586089125334553</v>
       </c>
       <c r="AQ34" s="3">
-        <v>11254.516527327865</v>
+        <v>15557.372023099373</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -1593,67 +1596,67 @@
         <v>362.94089424612969</v>
       </c>
       <c r="E35">
-        <v>167.63856968843831</v>
+        <v>188.05862527694231</v>
       </c>
       <c r="F35">
-        <v>-297.96022308015807</v>
+        <v>2141.3192195463084</v>
       </c>
       <c r="G35">
-        <v>156.79343143776526</v>
+        <v>169.37033400348781</v>
       </c>
       <c r="H35">
         <v>4752.6481028090693</v>
       </c>
       <c r="I35">
-        <v>2.3561289119496354</v>
+        <v>2.6431289945983441</v>
       </c>
       <c r="J35">
-        <v>-23.907708743145648</v>
+        <v>171.81500167302804</v>
       </c>
       <c r="K35">
-        <v>149.09375400108931</v>
+        <v>161.05304081581653</v>
       </c>
       <c r="L35">
         <v>99.855379410882833</v>
       </c>
       <c r="M35">
-        <v>104.84773658175878</v>
+        <v>117.61924025962631</v>
       </c>
       <c r="N35">
-        <v>-42.01936542518046</v>
+        <v>301.97612905489319</v>
       </c>
       <c r="O35">
-        <v>53.358766985919566</v>
+        <v>57.638844328798392</v>
       </c>
       <c r="P35">
-        <v>405.33269131150945</v>
+        <v>454.70626986089627</v>
       </c>
       <c r="Q35">
-        <v>-118.58264154711317</v>
+        <v>852.20532735704194</v>
       </c>
       <c r="R35">
-        <v>206.08885775482912</v>
+        <v>222.61990411369615</v>
       </c>
       <c r="S35">
         <v>306.43795562512798</v>
       </c>
       <c r="T35">
-        <v>108.68294133279251</v>
+        <v>121.92161133374998</v>
       </c>
       <c r="U35">
-        <v>-188.00133663883071</v>
+        <v>1351.0893208615421</v>
       </c>
       <c r="V35">
-        <v>298.63077861677061</v>
+        <v>322.58490839981425</v>
       </c>
       <c r="W35">
-        <v>112.22635031317063</v>
+        <v>125.89664299193191</v>
       </c>
       <c r="X35">
-        <v>-48.739012122084667</v>
+        <v>350.26750322523304</v>
       </c>
       <c r="Y35">
-        <v>97.467413370351323</v>
+        <v>105.28558630050034</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
@@ -1693,13 +1696,13 @@
         <v>10054.140996092767</v>
       </c>
       <c r="AH37">
-        <v>3398.4930289857666</v>
+        <v>4697.8135614675411</v>
       </c>
       <c r="AI37">
-        <v>389.41267229217522</v>
+        <v>2861.6890730728678</v>
       </c>
       <c r="AQ37" s="3">
-        <v>-2985.6090829600616</v>
+        <v>-6757.206016222528</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
@@ -1716,13 +1719,13 @@
         <v>16661.914502887495</v>
       </c>
       <c r="AH38">
-        <v>861.58978199639159</v>
+        <v>1190.9949874143063</v>
       </c>
       <c r="AI38">
-        <v>4880.1902769789622</v>
+        <v>5088.1592742925122</v>
       </c>
       <c r="AQ38" s="3">
-        <v>-13458.859692591614</v>
+        <v>-13996.233895323079</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
@@ -1739,13 +1742,13 @@
         <v>110.55457677839405</v>
       </c>
       <c r="AH39">
-        <v>1914.6439599919813</v>
+        <v>2646.655527587347</v>
       </c>
       <c r="AI39">
-        <v>216.04251755338072</v>
+        <v>577.08959305420069</v>
       </c>
       <c r="AQ39" s="3">
-        <v>2398.7180793022058</v>
+        <v>1305.65943620602</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -1759,13 +1762,13 @@
         <v>9</v>
       </c>
       <c r="AH40">
-        <v>5079.7897563537254</v>
+        <v>7021.90794663018</v>
       </c>
       <c r="AI40">
-        <v>492.83890751922542</v>
+        <v>1529.5315013316342</v>
       </c>
       <c r="AQ40" s="3">
-        <v>4892.8030258032959</v>
+        <v>1913.9922417144317</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
@@ -1782,13 +1785,13 @@
         <v>158.60476837297716</v>
       </c>
       <c r="AH41">
-        <v>6323.1314861423352</v>
+        <v>8740.6072612739426</v>
       </c>
       <c r="AI41">
-        <v>525.75033893586033</v>
+        <v>2102.0337962202343</v>
       </c>
       <c r="AQ41" s="3">
-        <v>2005.9083489067307</v>
+        <v>-1987.8508835092507</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
@@ -1802,13 +1805,13 @@
         <v>11</v>
       </c>
       <c r="AH42">
-        <v>4931.3850411855301</v>
+        <v>6816.7647618254314</v>
       </c>
       <c r="AI42">
-        <v>160.95475156143729</v>
+        <v>581.44973251766532</v>
       </c>
       <c r="AQ42" s="3">
-        <v>-209.59528114836303</v>
+        <v>-2515.469982744492</v>
       </c>
     </row>
     <row r="43" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1827,14 +1830,11 @@
       <c r="AA43" s="3">
         <v>4150.2884720414877</v>
       </c>
-      <c r="AD43" s="3">
-        <v>16771.689338838572</v>
-      </c>
       <c r="AE43" s="3">
-        <v>3414.6992680652734</v>
+        <v>2301.0294805195881</v>
       </c>
       <c r="AF43" s="3">
-        <v>13339.606041531195</v>
+        <v>24298.689509745833</v>
       </c>
       <c r="AJ43" s="3">
         <v>41052.959415035271</v>

--- a/GAMS/MakeMeASam.xlsx
+++ b/GAMS/MakeMeASam.xlsx
@@ -456,10 +456,10 @@
   <dimension ref="A1:AW43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GAMS/MakeMeASam.xlsx
+++ b/GAMS/MakeMeASam.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="21">
   <si>
     <t>ACT</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>AqLL</t>
-  </si>
-  <si>
-    <t>AgAg</t>
-  </si>
-  <si>
-    <t>AgLL</t>
   </si>
   <si>
     <t>COMM</t>
@@ -514,80 +508,62 @@
         <v>0</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="2"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
@@ -642,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>11</v>
@@ -663,59 +639,41 @@
         <v>11</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="2"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
@@ -773,77 +731,59 @@
         <v>8</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="Y3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="2"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
@@ -861,7 +801,7 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB4">
+      <c r="U4">
         <v>20994.603755950928</v>
       </c>
     </row>
@@ -875,7 +815,7 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC5">
+      <c r="V5">
         <v>426.89999389648438</v>
       </c>
     </row>
@@ -889,7 +829,7 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD6">
+      <c r="W6">
         <v>11361.66015625</v>
       </c>
     </row>
@@ -903,7 +843,7 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE7">
+      <c r="X7">
         <v>448</v>
       </c>
     </row>
@@ -917,7 +857,7 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB8">
+      <c r="U8">
         <v>61609.917491912842</v>
       </c>
     </row>
@@ -931,7 +871,7 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC9">
+      <c r="V9">
         <v>6</v>
       </c>
     </row>
@@ -945,7 +885,7 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD10">
+      <c r="W10">
         <v>911.635986328125</v>
       </c>
     </row>
@@ -959,7 +899,7 @@
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE11">
+      <c r="X11">
         <v>426</v>
       </c>
     </row>
@@ -973,7 +913,7 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z12">
+      <c r="S12">
         <v>397.23975270986557</v>
       </c>
     </row>
@@ -987,7 +927,7 @@
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC13">
+      <c r="V13">
         <v>267</v>
       </c>
     </row>
@@ -1001,7 +941,7 @@
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD14">
+      <c r="W14">
         <v>1602.260009765625</v>
       </c>
     </row>
@@ -1015,7 +955,7 @@
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE15">
+      <c r="X15">
         <v>152.46000671386719</v>
       </c>
     </row>
@@ -1029,11 +969,11 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC16">
+      <c r="V16">
         <v>1032.199951171875</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,11 +983,11 @@
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD17">
+      <c r="W17">
         <v>4521.72998046875</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,788 +997,566 @@
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE18">
+      <c r="X18">
         <v>588.8499755859375</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z19">
-        <v>997.74024230241776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AD19">
+        <v>82617.530900575686</v>
+      </c>
+      <c r="AE19">
+        <v>3414.620450925082</v>
+      </c>
+      <c r="AF19">
+        <v>155328.66988863051</v>
+      </c>
+      <c r="AG19">
+        <v>1385280.3823341476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20">
+        <v>57185.924981128424</v>
+      </c>
+      <c r="AE20">
+        <v>3494.5091401152313</v>
+      </c>
+      <c r="AF20">
+        <v>76548.627486377954</v>
+      </c>
+      <c r="AG20">
+        <v>677174.82595571503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21">
+        <v>27424.465937918052</v>
+      </c>
+      <c r="AE21">
+        <v>1967.784024015069</v>
+      </c>
+      <c r="AF21">
+        <v>39368.804135151207</v>
+      </c>
+      <c r="AG21">
+        <v>382800.68468393758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC20">
-        <v>276.76654052734375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="AD22">
+        <v>13067.013287723064</v>
+      </c>
+      <c r="AE22">
+        <v>1855.7734765553323</v>
+      </c>
+      <c r="AF22">
+        <v>3952.1299101412296</v>
+      </c>
+      <c r="AG22">
+        <v>87183.699216522276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD21">
-        <v>7168.7666015625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="E23">
+        <v>49.581221326314676</v>
+      </c>
+      <c r="F23">
+        <v>3437.2150730335607</v>
+      </c>
+      <c r="G23">
+        <v>99.154136348548874</v>
+      </c>
+      <c r="I23">
+        <v>0.69685484237796314</v>
+      </c>
+      <c r="J23">
+        <v>275.79499036530586</v>
+      </c>
+      <c r="K23">
+        <v>94.28496001000407</v>
+      </c>
+      <c r="M23">
+        <v>31.01004048581936</v>
+      </c>
+      <c r="N23">
+        <v>484.7277757604603</v>
+      </c>
+      <c r="O23">
+        <v>33.743393512070234</v>
+      </c>
+      <c r="P23">
+        <v>119.88225571273637</v>
+      </c>
+      <c r="Q23">
+        <v>1367.9478378435092</v>
+      </c>
+      <c r="R23">
+        <v>130.32792582162438</v>
+      </c>
+      <c r="AD23">
+        <v>175771.36392122135</v>
+      </c>
+      <c r="AE23">
+        <v>24406.255067212041</v>
+      </c>
+      <c r="AF23">
+        <v>331382.92835124955</v>
+      </c>
+      <c r="AG23">
+        <v>2120214.9738924354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE22">
-        <v>853.26654052734375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC23">
-        <v>285.79000854492188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="AD24">
-        <v>1858.489990234375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+        <v>88964.127261988353</v>
+      </c>
+      <c r="AE24">
+        <v>7660.4159490689635</v>
+      </c>
+      <c r="AF24">
+        <v>65275.748434200883</v>
+      </c>
+      <c r="AG24">
+        <v>545638.59911578556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>53.099567767693429</v>
+      </c>
+      <c r="F25">
+        <v>4266.7578149247265</v>
+      </c>
+      <c r="G25">
+        <v>61.099397348179501</v>
+      </c>
+      <c r="I25">
+        <v>0.7463045471099603</v>
+      </c>
+      <c r="J25">
+        <v>342.35577508383886</v>
+      </c>
+      <c r="K25">
+        <v>58.098980514117116</v>
+      </c>
+      <c r="M25">
+        <v>33.210552346393236</v>
+      </c>
+      <c r="N25">
+        <v>601.71271840481381</v>
+      </c>
+      <c r="O25">
+        <v>20.792889575706887</v>
+      </c>
+      <c r="P25">
+        <v>128.38925284770821</v>
+      </c>
+      <c r="Q25">
+        <v>1698.0904608849266</v>
+      </c>
+      <c r="R25">
+        <v>80.30888088569418</v>
+      </c>
+      <c r="AD25">
+        <v>238925.14341731605</v>
       </c>
       <c r="AE25">
-        <v>278.489990234375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+        <v>37704.155715549365</v>
+      </c>
+      <c r="AF25">
+        <v>126216.06277791411</v>
+      </c>
+      <c r="AG25">
+        <v>1217016.4605729957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK26">
-        <v>1311.3893793742172</v>
-      </c>
-      <c r="AL26">
-        <v>379.40227232500911</v>
-      </c>
-      <c r="AM26">
-        <v>903.07366214320052</v>
-      </c>
-      <c r="AN26">
-        <v>2259.8374915728346</v>
-      </c>
-      <c r="AO26">
-        <v>1702.817321832292</v>
-      </c>
-      <c r="AP26">
-        <v>1245.9361386955718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>10054.140996092767</v>
+      </c>
+      <c r="H26">
+        <v>16661.914502887495</v>
+      </c>
+      <c r="L26">
+        <v>110.55457677839405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>1970.0026266263692</v>
+      </c>
+      <c r="E27">
+        <v>136.16057952553396</v>
+      </c>
+      <c r="F27">
+        <v>1516.3680487454039</v>
+      </c>
+      <c r="G27">
+        <v>118.37613229978382</v>
+      </c>
+      <c r="H27">
+        <v>8270.7683906643706</v>
+      </c>
+      <c r="I27">
+        <v>1.9137116159137328</v>
+      </c>
+      <c r="J27">
+        <v>121.67021920595221</v>
+      </c>
+      <c r="K27">
+        <v>112.5630186600623</v>
+      </c>
+      <c r="L27">
+        <v>36.801567265183557</v>
+      </c>
+      <c r="M27">
+        <v>85.160166908161102</v>
+      </c>
+      <c r="N27">
+        <v>213.84338654545755</v>
+      </c>
+      <c r="O27">
+        <v>40.284879297291674</v>
+      </c>
+      <c r="P27">
+        <v>329.22217275053418</v>
+      </c>
+      <c r="Q27">
+        <v>603.48635438327244</v>
+      </c>
+      <c r="R27">
+        <v>155.59326476492279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AK27">
-        <v>907.71309493854642</v>
-      </c>
-      <c r="AL27">
-        <v>388.27879334613681</v>
-      </c>
-      <c r="AM27">
-        <v>445.05015980452299</v>
-      </c>
-      <c r="AN27">
-        <v>1104.6897650174797</v>
-      </c>
-      <c r="AO27">
-        <v>815.12486981973063</v>
-      </c>
-      <c r="AP27">
-        <v>489.43178911507141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK28">
-        <v>435.30898314155638</v>
-      </c>
-      <c r="AL28">
-        <v>218.64266933500767</v>
-      </c>
-      <c r="AM28">
-        <v>228.88839613460004</v>
-      </c>
-      <c r="AN28">
-        <v>624.47093749418855</v>
-      </c>
-      <c r="AO28">
-        <v>489.93827264569705</v>
-      </c>
-      <c r="AP28">
-        <v>304.19843676080933</v>
-      </c>
-      <c r="AQ28" s="3">
-        <v>80303.073552351911</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>362.94089424612969</v>
+      </c>
+      <c r="E28">
+        <v>188.05862527694231</v>
+      </c>
+      <c r="F28">
+        <v>2141.3192195463084</v>
+      </c>
+      <c r="G28">
+        <v>169.37033400348781</v>
+      </c>
+      <c r="H28">
+        <v>4752.6481028090693</v>
+      </c>
+      <c r="I28">
+        <v>2.6431289945983441</v>
+      </c>
+      <c r="J28">
+        <v>171.81500167302804</v>
+      </c>
+      <c r="K28">
+        <v>161.05304081581653</v>
+      </c>
+      <c r="L28">
+        <v>99.855379410882833</v>
+      </c>
+      <c r="M28">
+        <v>117.61924025962631</v>
+      </c>
+      <c r="N28">
+        <v>301.97612905489319</v>
+      </c>
+      <c r="O28">
+        <v>57.638844328798392</v>
+      </c>
+      <c r="P28">
+        <v>454.70626986089627</v>
+      </c>
+      <c r="Q28">
+        <v>852.20532735704194</v>
+      </c>
+      <c r="R28">
+        <v>222.61990411369615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK29">
-        <v>207.41290932893753</v>
-      </c>
-      <c r="AL29">
-        <v>206.19705295059248</v>
-      </c>
-      <c r="AM29">
-        <v>22.977499477565289</v>
-      </c>
-      <c r="AN29">
-        <v>142.22463167458773</v>
-      </c>
-      <c r="AO29">
-        <v>25.698509089648727</v>
-      </c>
-      <c r="AP29">
-        <v>13.224999964237215</v>
-      </c>
-      <c r="AQ29" s="3">
-        <v>1676.920891655056</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>8607.519238985662</v>
+      </c>
+      <c r="H29">
+        <v>31924.586495551899</v>
+      </c>
+      <c r="L29">
+        <v>150.02822925540511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>49.581221326314676</v>
-      </c>
-      <c r="F30">
-        <v>3437.2150730335607</v>
-      </c>
-      <c r="G30">
-        <v>99.154136348548874</v>
-      </c>
-      <c r="I30">
-        <v>0.69685484237796314</v>
-      </c>
-      <c r="J30">
-        <v>275.79499036530586</v>
-      </c>
-      <c r="K30">
-        <v>94.28496001000407</v>
-      </c>
-      <c r="M30">
-        <v>31.01004048581936</v>
-      </c>
-      <c r="N30">
-        <v>484.7277757604603</v>
-      </c>
-      <c r="O30">
-        <v>33.743393512070234</v>
-      </c>
-      <c r="P30">
-        <v>119.88225571273637</v>
-      </c>
-      <c r="Q30">
-        <v>1367.9478378435092</v>
-      </c>
-      <c r="R30">
-        <v>130.32792582162438</v>
-      </c>
-      <c r="T30">
-        <v>32.144350662446044</v>
-      </c>
-      <c r="U30">
-        <v>2168.7493094392121</v>
-      </c>
-      <c r="V30">
-        <v>188.85023861853313</v>
-      </c>
-      <c r="W30">
-        <v>33.192358559628047</v>
-      </c>
-      <c r="X30">
-        <v>562.24440087671178</v>
-      </c>
-      <c r="Y30">
-        <v>61.637130498672462</v>
-      </c>
-      <c r="AK30">
-        <v>2790.021649543196</v>
-      </c>
-      <c r="AL30">
-        <v>2711.8061185791157</v>
-      </c>
-      <c r="AM30">
-        <v>1926.6449322747067</v>
-      </c>
-      <c r="AN30">
-        <v>3458.7519965618849</v>
-      </c>
-      <c r="AO30">
-        <v>2982.4510657396172</v>
-      </c>
-      <c r="AP30">
-        <v>1673.4969271477314</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>2710.1857810455876</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>10054.140996092767</v>
+      </c>
+      <c r="AA30">
+        <v>4140.6368138961534</v>
+      </c>
+      <c r="AB30">
+        <v>2861.6890730728678</v>
+      </c>
+      <c r="AH30">
+        <v>666899.10282480915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK31">
-        <v>1412.1290041585453</v>
-      </c>
-      <c r="AL31">
-        <v>851.15732767432928</v>
-      </c>
-      <c r="AM31">
-        <v>379.51016531512141</v>
-      </c>
-      <c r="AN31">
-        <v>890.11190720356535</v>
-      </c>
-      <c r="AO31">
-        <v>970.39383600070153</v>
-      </c>
-      <c r="AP31">
-        <v>544.79375322884891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="Z31">
+        <v>16661.914502887495</v>
+      </c>
+      <c r="AA31">
+        <v>1049.7389105652221</v>
+      </c>
+      <c r="AB31">
+        <v>5088.1592742925122</v>
+      </c>
+      <c r="AH31">
+        <v>57703.701135695854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32">
-        <v>53.099567767693429</v>
-      </c>
-      <c r="F32">
-        <v>4266.7578149247265</v>
-      </c>
-      <c r="G32">
-        <v>61.099397348179501</v>
-      </c>
-      <c r="I32">
-        <v>0.7463045471099603</v>
-      </c>
-      <c r="J32">
-        <v>342.35577508383886</v>
-      </c>
-      <c r="K32">
-        <v>58.098980514117116</v>
-      </c>
-      <c r="M32">
-        <v>33.210552346393236</v>
-      </c>
-      <c r="N32">
-        <v>601.71271840481381</v>
-      </c>
-      <c r="O32">
-        <v>20.792889575706887</v>
-      </c>
-      <c r="P32">
-        <v>128.38925284770821</v>
-      </c>
-      <c r="Q32">
-        <v>1698.0904608849266</v>
-      </c>
-      <c r="R32">
-        <v>80.30888088569418</v>
-      </c>
-      <c r="T32">
-        <v>34.42535461390829</v>
-      </c>
-      <c r="U32">
-        <v>2692.158584215545</v>
-      </c>
-      <c r="V32">
-        <v>116.3706950972917</v>
-      </c>
-      <c r="W32">
-        <v>35.547730482611598</v>
-      </c>
-      <c r="X32">
-        <v>697.93732436450227</v>
-      </c>
-      <c r="Y32">
-        <v>37.98118430986765</v>
-      </c>
-      <c r="AK32">
-        <v>3792.4625939256516</v>
-      </c>
-      <c r="AL32">
-        <v>4189.3506350610405</v>
-      </c>
-      <c r="AM32">
-        <v>733.81431847624481</v>
-      </c>
-      <c r="AN32">
-        <v>1985.3449601517057</v>
-      </c>
-      <c r="AO32">
-        <v>2026.9710672302176</v>
-      </c>
-      <c r="AP32">
-        <v>611.66246668633551</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="Z32">
+        <v>110.55457677839405</v>
+      </c>
+      <c r="AA32">
+        <v>2332.7531345893826</v>
+      </c>
+      <c r="AB32">
+        <v>577.08959305420069</v>
+      </c>
+      <c r="AH32">
+        <v>795052.57367924345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>10054.140996092767</v>
-      </c>
-      <c r="H33">
-        <v>16661.914502887495</v>
-      </c>
-      <c r="L33">
-        <v>110.55457677839405</v>
-      </c>
-      <c r="S33">
-        <v>158.60476837297716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="AA33">
+        <v>6189.0856602074555</v>
+      </c>
+      <c r="AB33">
+        <v>1529.5315013316342</v>
+      </c>
+      <c r="AH33">
+        <v>6407591.0086099999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34">
-        <v>1970.0026266263692</v>
-      </c>
-      <c r="E34">
-        <v>136.16057952553396</v>
-      </c>
-      <c r="F34">
-        <v>1516.3680487454039</v>
-      </c>
-      <c r="G34">
-        <v>118.37613229978382</v>
-      </c>
-      <c r="H34">
-        <v>8270.7683906643706</v>
-      </c>
-      <c r="I34">
-        <v>1.9137116159137328</v>
-      </c>
-      <c r="J34">
-        <v>121.67021920595221</v>
-      </c>
-      <c r="K34">
-        <v>112.5630186600623</v>
-      </c>
-      <c r="L34">
-        <v>36.801567265183557</v>
-      </c>
-      <c r="M34">
-        <v>85.160166908161102</v>
-      </c>
-      <c r="N34">
-        <v>213.84338654545755</v>
-      </c>
-      <c r="O34">
-        <v>40.284879297291674</v>
-      </c>
-      <c r="P34">
-        <v>329.22217275053418</v>
-      </c>
-      <c r="Q34">
-        <v>603.48635438327244</v>
-      </c>
-      <c r="R34">
-        <v>155.59326476492279</v>
+        <v>11</v>
       </c>
       <c r="S34">
-        <v>161.87206706200377</v>
+        <v>1626243.963821569</v>
       </c>
       <c r="T34">
-        <v>88.27522391723943</v>
+        <v>814403.88756333664</v>
       </c>
       <c r="U34">
-        <v>956.76938704620022</v>
+        <v>368957.21753315814</v>
       </c>
       <c r="V34">
-        <v>225.4606984117047</v>
+        <v>104326.51594587354</v>
       </c>
       <c r="W34">
-        <v>91.153276510750317</v>
+        <v>2639502.6015643682</v>
       </c>
       <c r="X34">
-        <v>248.04076176792788</v>
+        <v>705923.58077874396</v>
       </c>
       <c r="Y34">
-        <v>73.586089125334553</v>
-      </c>
-      <c r="AQ34" s="3">
-        <v>15557.372023099373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35">
-        <v>362.94089424612969</v>
-      </c>
-      <c r="E35">
-        <v>188.05862527694231</v>
-      </c>
-      <c r="F35">
-        <v>2141.3192195463084</v>
-      </c>
-      <c r="G35">
-        <v>169.37033400348781</v>
-      </c>
-      <c r="H35">
-        <v>4752.6481028090693</v>
-      </c>
-      <c r="I35">
-        <v>2.6431289945983441</v>
-      </c>
-      <c r="J35">
-        <v>171.81500167302804</v>
-      </c>
-      <c r="K35">
-        <v>161.05304081581653</v>
-      </c>
-      <c r="L35">
-        <v>99.855379410882833</v>
-      </c>
-      <c r="M35">
-        <v>117.61924025962631</v>
-      </c>
-      <c r="N35">
-        <v>301.97612905489319</v>
-      </c>
-      <c r="O35">
-        <v>57.638844328798392</v>
-      </c>
-      <c r="P35">
-        <v>454.70626986089627</v>
-      </c>
-      <c r="Q35">
-        <v>852.20532735704194</v>
-      </c>
-      <c r="R35">
-        <v>222.61990411369615</v>
-      </c>
-      <c r="S35">
-        <v>306.43795562512798</v>
-      </c>
-      <c r="T35">
-        <v>121.92161133374998</v>
-      </c>
-      <c r="U35">
-        <v>1351.0893208615421</v>
-      </c>
-      <c r="V35">
-        <v>322.58490839981425</v>
-      </c>
-      <c r="W35">
-        <v>125.89664299193191</v>
-      </c>
-      <c r="X35">
-        <v>350.26750322523304</v>
-      </c>
-      <c r="Y35">
-        <v>105.28558630050034</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36">
-        <v>8607.519238985662</v>
-      </c>
-      <c r="H36">
-        <v>31924.586495551899</v>
-      </c>
-      <c r="L36">
-        <v>150.02822925540511</v>
-      </c>
-      <c r="S36">
-        <v>370.82545124230882</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG37">
-        <v>10054.140996092767</v>
-      </c>
-      <c r="AH37">
-        <v>4697.8135614675411</v>
-      </c>
-      <c r="AI37">
-        <v>2861.6890730728678</v>
-      </c>
-      <c r="AQ37" s="3">
-        <v>-6757.206016222528</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG38">
-        <v>16661.914502887495</v>
-      </c>
-      <c r="AH38">
-        <v>1190.9949874143063</v>
-      </c>
-      <c r="AI38">
-        <v>5088.1592742925122</v>
-      </c>
-      <c r="AQ38" s="3">
-        <v>-13996.233895323079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG39">
-        <v>110.55457677839405</v>
-      </c>
-      <c r="AH39">
-        <v>2646.655527587347</v>
-      </c>
-      <c r="AI39">
-        <v>577.08959305420069</v>
-      </c>
-      <c r="AQ39" s="3">
-        <v>1305.65943620602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH40">
-        <v>7021.90794663018</v>
-      </c>
-      <c r="AI40">
-        <v>1529.5315013316342</v>
-      </c>
-      <c r="AQ40" s="3">
-        <v>1913.9922417144317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG41">
-        <v>158.60476837297716</v>
-      </c>
-      <c r="AH41">
-        <v>8740.6072612739426</v>
-      </c>
-      <c r="AI41">
-        <v>2102.0337962202343</v>
-      </c>
-      <c r="AQ41" s="3">
-        <v>-1987.8508835092507</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH42">
-        <v>6816.7647618254314</v>
-      </c>
-      <c r="AI42">
-        <v>581.44973251766532</v>
-      </c>
-      <c r="AQ42" s="3">
-        <v>-2515.469982744492</v>
-      </c>
-    </row>
-    <row r="43" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>6407.4762709308416</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>4150.2884720414877</v>
-      </c>
-      <c r="AE43" s="3">
-        <v>2301.0294805195881</v>
-      </c>
-      <c r="AF43" s="3">
-        <v>24298.689509745833</v>
-      </c>
-      <c r="AJ43" s="3">
-        <v>41052.959415035271</v>
-      </c>
+        <v>1627206.4850789062</v>
+      </c>
+      <c r="AA34">
+        <v>1.8189894035458565E-12</v>
+      </c>
+      <c r="AC34">
+        <v>40682.133963792963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
